--- a/trunk/Draft/Struktur Data/Struktur-Tabel.xlsx
+++ b/trunk/Draft/Struktur Data/Struktur-Tabel.xlsx
@@ -17,14 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>Nama Kolom</t>
   </si>
   <si>
-    <t>Tipe</t>
-  </si>
-  <si>
     <t>Panjang</t>
   </si>
   <si>
@@ -52,21 +49,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>primary key sms_input</t>
-  </si>
-  <si>
-    <t>tanggal sms masuk</t>
-  </si>
-  <si>
-    <t>no pengirim sms</t>
-  </si>
-  <si>
-    <t>pesan yang dikirim</t>
-  </si>
-  <si>
-    <t>ok/nok</t>
-  </si>
-  <si>
     <t>id_output</t>
   </si>
   <si>
@@ -91,24 +73,6 @@
     <t>nama_assembly</t>
   </si>
   <si>
-    <t>primary key sms_output</t>
-  </si>
-  <si>
-    <t>tanggal sms input diproses</t>
-  </si>
-  <si>
-    <t>tanggal sms balasan dikirim</t>
-  </si>
-  <si>
-    <t>no tujuan balasan sms</t>
-  </si>
-  <si>
-    <t>pesan balasan / broadcast</t>
-  </si>
-  <si>
-    <t>referensi request, null = broadcast</t>
-  </si>
-  <si>
     <t>tipe command</t>
   </si>
   <si>
@@ -139,25 +103,70 @@
     <t>waktu_eksekusi_terakhir</t>
   </si>
   <si>
-    <t>active/disactive</t>
-  </si>
-  <si>
-    <t>waktu eksekusi terakhir</t>
-  </si>
-  <si>
-    <t>waktu eksekusi selanjutnya</t>
-  </si>
-  <si>
-    <t>selisih hari pengulangan</t>
-  </si>
-  <si>
-    <t>pengulangan saat ini</t>
-  </si>
-  <si>
-    <t>max pengulangan eksekusi</t>
-  </si>
-  <si>
-    <t>primary key jadwal broadcast</t>
+    <t>Tipe Data</t>
+  </si>
+  <si>
+    <t>berisi tanggal sms masuk</t>
+  </si>
+  <si>
+    <t>berisi pesan sms untuk diproses</t>
+  </si>
+  <si>
+    <t>berisi status pemrosesan sms, ok/nok</t>
+  </si>
+  <si>
+    <t>primary key, berisi nomor seri sms</t>
+  </si>
+  <si>
+    <t>berisi nomor pengirim sms</t>
+  </si>
+  <si>
+    <t>primary key, berisi no seri sms</t>
+  </si>
+  <si>
+    <t>berisi tanggal sms input diproses</t>
+  </si>
+  <si>
+    <t>berisi tanggal sms balasan dikirim</t>
+  </si>
+  <si>
+    <t>berisi no tujuan balasan sms</t>
+  </si>
+  <si>
+    <t>berisi pesan balasan / broadcast</t>
+  </si>
+  <si>
+    <t>berisi status sms, ok/nok</t>
+  </si>
+  <si>
+    <t>berisi id_input sms</t>
+  </si>
+  <si>
+    <t>berisi tipe command</t>
+  </si>
+  <si>
+    <t>berisi nama command</t>
+  </si>
+  <si>
+    <t>primary key, berisi serial jadwal</t>
+  </si>
+  <si>
+    <t>berisi max pengulangan eksekusi</t>
+  </si>
+  <si>
+    <t>berisi pengulangan saat ini</t>
+  </si>
+  <si>
+    <t>berisi selisih hari pengulangan</t>
+  </si>
+  <si>
+    <t>berisi waktu eksekusi selanjutnya</t>
+  </si>
+  <si>
+    <t>berisi waktu eksekusi terakhir</t>
+  </si>
+  <si>
+    <t>berisi status active/disactive</t>
   </si>
 </sst>
 </file>
@@ -225,8 +234,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,92 +540,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>160</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -633,146 +644,146 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>160</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -785,84 +796,84 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>255</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -875,150 +886,151 @@
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>160</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
